--- a/Demos/test.xlsx
+++ b/Demos/test.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,67 +9,160 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20592" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9288"/>
   </bookViews>
   <sheets>
-    <sheet name="test sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>写入内容1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>工程名称</t>
+  </si>
+  <si>
+    <t>最高报价</t>
+  </si>
+  <si>
+    <t>下浮率</t>
+  </si>
+  <si>
+    <t>工资</t>
+  </si>
+  <si>
+    <t>P值下浮率</t>
+  </si>
+  <si>
+    <r>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>写入内容2</t>
+    <r>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程名称</t>
+  </si>
+  <si>
+    <t>new1</t>
+  </si>
+  <si>
+    <t>2020年中心2</t>
+  </si>
+  <si>
+    <t>2020年中心3</t>
+  </si>
+  <si>
+    <t>最高报价</t>
+  </si>
+  <si>
+    <t>下浮率</t>
+  </si>
+  <si>
+    <t>工资</t>
+  </si>
+  <si>
+    <t>P值下浮率</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00000_);[Red]\(0.00000\)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,52 +181,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -149,49 +212,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5646420" y="1005840"/>
-          <a:ext cx="4467225" cy="4467225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,51 +477,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.15625" customWidth="true"/>
+    <col min="2" max="2" width="10.7109375" customWidth="true"/>
+    <col min="3" max="3" width="8.82421875" style="3" customWidth="true"/>
+    <col min="4" max="4" width="9.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
+    <row r="1" s="1" customFormat="true" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
+    <row r="2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1538103.8499999999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.056200002360048629</v>
+      </c>
+      <c r="D2" s="0">
+        <v>231307.23000000001</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.089434200500252969</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
+    <row r="3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0">
+        <v>3106755.3699999996</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.087349999494810482</v>
+      </c>
+      <c r="D3" s="0">
+        <v>640440.43999999994</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.1025410077358524</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row r="4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2992051.2000000002</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.1199999986631245</v>
+      </c>
+      <c r="D4" s="0">
+        <v>670238.10999999999</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.13672442388537853</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.20833333333333334" right="0.27777777777777779" top="6.9444444444444448E-2" bottom="0.1388888888888889" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>